--- a/试点城市名单.xlsx
+++ b/试点城市名单.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>中山市</t>
+          <t>临沧市</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>临沧市</t>
+          <t>丽江市</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>丽江市</t>
+          <t>云浮市</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>云浮市</t>
+          <t>佛山市</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>佛山市</t>
+          <t>保定市</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>保定市</t>
+          <t>保山市</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>保山市</t>
+          <t>十堰市</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>十堰市</t>
+          <t>厦门市</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>南昌市</t>
+          <t>咸宁市</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>厦门市</t>
+          <t>咸阳市</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -618,7 +618,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>咸宁市</t>
+          <t>天津市</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -633,7 +633,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>咸阳市</t>
+          <t>宜昌市</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -648,7 +648,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>天津市</t>
+          <t>惠州市</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -663,7 +663,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>宜昌市</t>
+          <t>揭阳市</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -678,7 +678,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>广州市</t>
+          <t>昭通市</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>延安市</t>
+          <t>曲靖市</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -708,7 +708,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>惠州市</t>
+          <t>杭州市</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -723,7 +723,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>揭阳市</t>
+          <t>梅州市</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -738,7 +738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>昆明市</t>
+          <t>榆林市</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -753,7 +753,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>昭通市</t>
+          <t>汕头市</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>普洱市</t>
+          <t>汕尾市</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -783,7 +783,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>曲靖市</t>
+          <t>江门市</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -798,7 +798,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>杭州市</t>
+          <t>河源市</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -813,7 +813,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>梅州市</t>
+          <t>深圳市</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -828,7 +828,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>榆林市</t>
+          <t>清远市</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -843,7 +843,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>武汉市</t>
+          <t>湛江市</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>汕头市</t>
+          <t>潮州市</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>汕尾市</t>
+          <t>珠海市</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>江门市</t>
+          <t>肇庆市</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -903,7 +903,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>河源市</t>
+          <t>茂名市</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>深圳市</t>
+          <t>荆州市</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>清远市</t>
+          <t>荆门市</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -948,7 +948,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>湛江市</t>
+          <t>西安市</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>潮州市</t>
+          <t>贵阳市</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>玉溪市</t>
+          <t>鄂州市</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>珠海市</t>
+          <t>重庆市</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>肇庆市</t>
+          <t>铜川市</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>茂名市</t>
+          <t>阳江市</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>荆州市</t>
+          <t>随州市</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>荆门市</t>
+          <t>韶关市</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>西安市</t>
+          <t>黄冈市</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1083,131 +1083,131 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>上海市</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>第一批</t>
+          <t>第二批</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>鄂州市</t>
+          <t>北京市</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>第一批</t>
+          <t>第二批</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>重庆市</t>
+          <t>宁波市</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>第一批</t>
+          <t>第二批</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>铜川市</t>
+          <t>广州市</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>第一批</t>
+          <t>第二批</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>阳江市</t>
+          <t>昆明市</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>第一批</t>
+          <t>第二批</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>随州市</t>
+          <t>晋城市</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>第一批</t>
+          <t>第二批</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>韶关市</t>
+          <t>景德镇市</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>第一批</t>
+          <t>第二批</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>黄冈市</t>
+          <t>武汉市</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>第一批</t>
+          <t>第二批</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海口市</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1218,11 +1218,11 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>上海市</t>
+          <t>淮安市</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1233,11 +1233,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>乌鲁木齐市</t>
+          <t>温州市</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1248,11 +1248,11 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>北京市</t>
+          <t>石家庄市</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1263,11 +1263,11 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>南平市</t>
+          <t>秦皇岛市</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1278,11 +1278,11 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>吉林市</t>
+          <t>苏州市</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1293,11 +1293,11 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>呼伦贝尔市</t>
+          <t>赣州市</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1308,11 +1308,11 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>大兴安岭地区</t>
+          <t>遵义市</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1323,11 +1323,11 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>宁波市</t>
+          <t>青岛市</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1338,262 +1338,262 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>三亚市</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>第二批</t>
+          <t>第三批</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>晋城市</t>
+          <t>三明市</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>第二批</t>
+          <t>第三批</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>景德镇市</t>
+          <t>中山市</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>第二批</t>
+          <t>第三批</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>桂林市</t>
+          <t>乌海市</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>第二批</t>
+          <t>第三批</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>池州市</t>
+          <t>乌鲁木齐市</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>第二批</t>
+          <t>第三批</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>济源市</t>
+          <t>六安市</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>第二批</t>
+          <t>第三批</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>海口市</t>
+          <t>兰州市</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>第二批</t>
+          <t>第三批</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>淮安市</t>
+          <t>南京市</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>第二批</t>
+          <t>第三批</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>温州市</t>
+          <t>南平市</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>第二批</t>
+          <t>第三批</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>石家庄市</t>
+          <t>合肥市</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>第二批</t>
+          <t>第三批</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>吉安市</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>第二批</t>
+          <t>第三批</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>苏州市</t>
+          <t>嘉兴市</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>第二批</t>
+          <t>第三批</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>宣城市</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>第二批</t>
+          <t>第三批</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>遵义市</t>
+          <t>常州市</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>第二批</t>
+          <t>第三批</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>金昌市</t>
+          <t>广元市</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>第二批</t>
+          <t>第三批</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>镇江市</t>
+          <t>延安市</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>第二批</t>
+          <t>第三批</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>青岛市</t>
+          <t>成都市</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>第二批</t>
+          <t>第三批</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>三明市</t>
+          <t>抚州市</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>乌海市</t>
+          <t>柳州市</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>伊宁市</t>
+          <t>株洲市</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>六安市</t>
+          <t>池州市</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>兰州市</t>
+          <t>济南市</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>共青城市</t>
+          <t>淮北市</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>南京市</t>
+          <t>湘潭市</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>合肥市</t>
+          <t>潍坊市</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>烟台市</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>玉溪市</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>和田市</t>
+          <t>衢州市</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>嘉兴市</t>
+          <t>西宁市</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>大连市</t>
+          <t>郴州市</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>安康市</t>
+          <t>金华市</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>宣城市</t>
+          <t>银川市</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1818,358 +1818,13 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>常州市</t>
+          <t>镇江市</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>2017</v>
       </c>
       <c r="C93" t="inlineStr">
-        <is>
-          <t>第三批</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>成都市</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>第三批</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>抚州市</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>第三批</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>拉萨市</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>第三批</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>敦煌市</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>第三批</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>昌吉市</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>第三批</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>朝阳市</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>第三批</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>柳州市</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>第三批</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>株洲市</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>第三批</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>沈阳市</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>第三批</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>济南市</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>第三批</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>淮北市</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>第三批</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>湘潭市</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>第三批</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>潍坊市</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>第三批</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>烟台市</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>第三批</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>琼中黎族苗族自治县</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>第三批</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>衢州市</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>第三批</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>西宁市</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>第三批</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>逊克县</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>第三批</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>郴州市</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>第三批</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>金华市</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>第三批</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>银川市</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>第三批</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>长沙市</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>第三批</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>黄山市</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C116" t="inlineStr">
         <is>
           <t>第三批</t>
         </is>

--- a/试点城市名单.xlsx
+++ b/试点城市名单.xlsx
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>北京市</t>
+          <t>乌鲁木齐市</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>宁波市</t>
+          <t>北京市</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>广州市</t>
+          <t>南平市</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>昆明市</t>
+          <t>宁波市</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>晋城市</t>
+          <t>广元市</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>景德镇市</t>
+          <t>广州市</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>武汉市</t>
+          <t>延安市</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>海口市</t>
+          <t>昆明市</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>淮安市</t>
+          <t>晋城市</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>温州市</t>
+          <t>景德镇市</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>石家庄市</t>
+          <t>武汉市</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>池州市</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>苏州市</t>
+          <t>海口市</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>赣州市</t>
+          <t>淮安市</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>遵义市</t>
+          <t>温州市</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>青岛市</t>
+          <t>石家庄市</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1338,97 +1338,97 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>秦皇岛市</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>第三批</t>
+          <t>第二批</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>三明市</t>
+          <t>苏州市</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>第三批</t>
+          <t>第二批</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>中山市</t>
+          <t>赣州市</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>第三批</t>
+          <t>第二批</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>乌海市</t>
+          <t>遵义市</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>第三批</t>
+          <t>第二批</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>乌鲁木齐市</t>
+          <t>镇江市</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>第三批</t>
+          <t>第二批</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>六安市</t>
+          <t>青岛市</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>第三批</t>
+          <t>第二批</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>兰州市</t>
+          <t>三亚市</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>南京市</t>
+          <t>三明市</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>南平市</t>
+          <t>中山市</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>合肥市</t>
+          <t>乌海市</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>六安市</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>嘉兴市</t>
+          <t>兰州市</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>宣城市</t>
+          <t>南京市</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>常州市</t>
+          <t>合肥市</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>吉安市</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>延安市</t>
+          <t>嘉兴市</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>宣城市</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>常州市</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>柳州市</t>
+          <t>成都市</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>株洲市</t>
+          <t>抚州市</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>池州市</t>
+          <t>柳州市</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>株洲市</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>济南市</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>湘潭市</t>
+          <t>淮北市</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>潍坊市</t>
+          <t>湘潭市</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>烟台市</t>
+          <t>潍坊市</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>玉溪市</t>
+          <t>烟台市</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>衢州市</t>
+          <t>玉溪市</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>西宁市</t>
+          <t>衢州市</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>郴州市</t>
+          <t>西宁市</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>金华市</t>
+          <t>郴州市</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>银川市</t>
+          <t>金华市</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>镇江市</t>
+          <t>银川市</t>
         </is>
       </c>
       <c r="B93" t="n">
